--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4605.356382188267</v>
+        <v>1921.231069960071</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616886</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>247.4818737619665</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0.7530123241020306</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011782</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>105.4283025147222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.7774790409653</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>220.9337494548533</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371267</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>245.0524934640844</v>
+        <v>33.85635251982109</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>110.2137808912157</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>154.9260532011782</v>
@@ -953,16 +953,16 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>59.69201161629572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>130.5603250818426</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>193.5551784010397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>247.9307971951428</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>244.1162682494268</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.00440560444411</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>52.60954681717764</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3849150459361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182163</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>116.2873251119294</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.2091541404067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>205.4655738502064</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695473</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128534</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364132</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>77.93612009726665</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>161.7400393421045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>54.31367585848636</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>118.4817021252628</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.069540131683943</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>177.9967539344705</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>142.3575218158273</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.1685137621098</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1231.514248272413</v>
+        <v>1057.450547801793</v>
       </c>
       <c r="C2" t="n">
-        <v>862.5517313320015</v>
+        <v>688.4880308613815</v>
       </c>
       <c r="D2" t="n">
-        <v>862.5517313320015</v>
+        <v>688.4880308613815</v>
       </c>
       <c r="E2" t="n">
-        <v>476.7634787337573</v>
+        <v>302.6997782631373</v>
       </c>
       <c r="F2" t="n">
-        <v>65.77757394414972</v>
+        <v>302.6997782631373</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7180875944842</v>
+        <v>302.6997782631373</v>
       </c>
       <c r="H2" t="n">
         <v>52.7180875944842</v>
@@ -4328,19 +4328,19 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002453</v>
       </c>
       <c r="K2" t="n">
-        <v>321.4042764948841</v>
+        <v>153.9986274745311</v>
       </c>
       <c r="L2" t="n">
-        <v>872.3447282234645</v>
+        <v>693.1884131896807</v>
       </c>
       <c r="M2" t="n">
-        <v>1501.978681104742</v>
+        <v>1322.822366070958</v>
       </c>
       <c r="N2" t="n">
-        <v>2127.168772059856</v>
+        <v>1948.012457026072</v>
       </c>
       <c r="O2" t="n">
         <v>2493.174093780568</v>
@@ -4355,25 +4355,25 @@
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="U2" t="n">
-        <v>2528.650526351661</v>
+        <v>2478.652798385543</v>
       </c>
       <c r="V2" t="n">
-        <v>2197.58763900809</v>
+        <v>2186.958375111841</v>
       </c>
       <c r="W2" t="n">
-        <v>1844.818983737976</v>
+        <v>1834.189719841727</v>
       </c>
       <c r="X2" t="n">
-        <v>1621.653580248225</v>
+        <v>1834.189719841727</v>
       </c>
       <c r="Y2" t="n">
-        <v>1231.514248272413</v>
+        <v>1444.050387865915</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120978</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309708</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697196</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642641</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911492</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
         <v>52.7180875944842</v>
@@ -4416,13 +4416,13 @@
         <v>1002.163317769836</v>
       </c>
       <c r="M3" t="n">
-        <v>1641.099782750554</v>
+        <v>1180.051769638054</v>
       </c>
       <c r="N3" t="n">
-        <v>2293.486116732296</v>
+        <v>1832.438103619796</v>
       </c>
       <c r="O3" t="n">
-        <v>2506.50087810347</v>
+        <v>2191.222737149932</v>
       </c>
       <c r="P3" t="n">
         <v>2613.977979877466</v>
@@ -4437,7 +4437,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="4">
@@ -4510,22 +4510,22 @@
         <v>1047.75168442186</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661763</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>709.4945613603447</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>483.8421572990156</v>
       </c>
       <c r="U4" t="n">
-        <v>758.5992117351946</v>
+        <v>483.8421572990156</v>
       </c>
       <c r="V4" t="n">
-        <v>511.0714405593517</v>
+        <v>449.6438214204085</v>
       </c>
       <c r="W4" t="n">
-        <v>221.6542705223911</v>
+        <v>449.6438214204085</v>
       </c>
       <c r="X4" t="n">
         <v>221.6542705223911</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1265.980755353528</v>
+        <v>860.6629474039753</v>
       </c>
       <c r="C5" t="n">
-        <v>897.0182384131165</v>
+        <v>860.6629474039753</v>
       </c>
       <c r="D5" t="n">
-        <v>897.0182384131165</v>
+        <v>502.3972487972248</v>
       </c>
       <c r="E5" t="n">
-        <v>511.2299858148723</v>
+        <v>502.3972487972248</v>
       </c>
       <c r="F5" t="n">
-        <v>504.2844850656688</v>
+        <v>495.4517480480213</v>
       </c>
       <c r="G5" t="n">
-        <v>491.2249987160033</v>
+        <v>482.3922616983558</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174001</v>
+        <v>164.0451389997526</v>
       </c>
       <c r="I5" t="n">
         <v>52.7180875944842</v>
@@ -4568,19 +4568,19 @@
         <v>240.3507333903776</v>
       </c>
       <c r="K5" t="n">
-        <v>321.4042764948841</v>
+        <v>642.3082349403372</v>
       </c>
       <c r="L5" t="n">
-        <v>482.9965724363753</v>
+        <v>779.7640842639717</v>
       </c>
       <c r="M5" t="n">
-        <v>1112.630525317652</v>
+        <v>1409.398037145249</v>
       </c>
       <c r="N5" t="n">
-        <v>1737.820616272767</v>
+        <v>2034.588128100363</v>
       </c>
       <c r="O5" t="n">
-        <v>2282.982253027263</v>
+        <v>2202.757585404741</v>
       </c>
       <c r="P5" t="n">
         <v>2392.009993239692</v>
@@ -4589,28 +4589,28 @@
         <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2479.413416894737</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140763</v>
+        <v>2264.560549649957</v>
       </c>
       <c r="U5" t="n">
-        <v>2010.107259195795</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.044371852224</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="W5" t="n">
-        <v>1326.27571658211</v>
+        <v>2010.867877704989</v>
       </c>
       <c r="X5" t="n">
-        <v>1265.980755353528</v>
+        <v>1637.402119443909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1265.980755353528</v>
+        <v>1247.262787468097</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120973</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309703</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697192</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642636</v>
+        <v>483.8069872642644</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911487</v>
+        <v>337.2724292911494</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640335</v>
+        <v>199.8245529640338</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815741</v>
+        <v>98.8460046381575</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
@@ -4647,19 +4647,19 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320009</v>
+        <v>119.3005601895481</v>
       </c>
       <c r="L6" t="n">
-        <v>884.103979029112</v>
+        <v>622.2833943866591</v>
       </c>
       <c r="M6" t="n">
-        <v>1061.99243089733</v>
+        <v>1098.212790057563</v>
       </c>
       <c r="N6" t="n">
-        <v>1714.378764879072</v>
+        <v>1750.599124039305</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2298.524363244979</v>
       </c>
       <c r="P6" t="n">
         <v>2406.001465018976</v>
@@ -4674,7 +4674,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4683,13 +4683,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
-        <v>1342.407516997119</v>
+        <v>1342.40751699712</v>
       </c>
       <c r="Y6" t="n">
-        <v>1134.647218232165</v>
+        <v>1134.647218232166</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.5673641047842</v>
+        <v>371.7709099347269</v>
       </c>
       <c r="C7" t="n">
-        <v>200.6311811768773</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="D7" t="n">
-        <v>200.6311811768773</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
         <v>52.7180875944842</v>
@@ -4750,25 +4750,25 @@
         <v>1047.75168442186</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>915.8725681775744</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>915.8725681775744</v>
       </c>
       <c r="U7" t="n">
-        <v>852.2414032086884</v>
+        <v>915.8725681775744</v>
       </c>
       <c r="V7" t="n">
-        <v>597.5569150028016</v>
+        <v>661.1880799716876</v>
       </c>
       <c r="W7" t="n">
-        <v>597.5569150028016</v>
+        <v>371.7709099347269</v>
       </c>
       <c r="X7" t="n">
-        <v>369.5673641047842</v>
+        <v>371.7709099347269</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.5673641047842</v>
+        <v>371.7709099347269</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.055226893434</v>
+        <v>1836.349927393502</v>
       </c>
       <c r="C8" t="n">
-        <v>1152.055226893434</v>
+        <v>1467.38741045309</v>
       </c>
       <c r="D8" t="n">
-        <v>1152.055226893434</v>
+        <v>1109.12171184634</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.055226893434</v>
+        <v>723.3334592480953</v>
       </c>
       <c r="F8" t="n">
-        <v>741.0693221038264</v>
+        <v>716.3879584988919</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6341734218639</v>
+        <v>299.3001767353193</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4805,22 +4805,22 @@
         <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>576.2043905545577</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1537554695192</v>
+        <v>1129.017648800757</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.871566452831</v>
+        <v>1315.717061626165</v>
       </c>
       <c r="N8" t="n">
-        <v>1732.832888932705</v>
+        <v>1943.024729686011</v>
       </c>
       <c r="O8" t="n">
-        <v>2279.994093699783</v>
+        <v>2490.185934453089</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2600.920259702615</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.90437972421</v>
@@ -4829,25 +4829,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2479.689342221038</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.88948048875</v>
+        <v>2421.104517991922</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.88948048875</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.88948048875</v>
+        <v>1836.349927393502</v>
       </c>
       <c r="W8" t="n">
-        <v>1912.120825218635</v>
+        <v>1836.349927393502</v>
       </c>
       <c r="X8" t="n">
-        <v>1538.655066957556</v>
+        <v>1836.349927393502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1538.655066957556</v>
+        <v>1836.349927393502</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.7180875944842</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>519.376089915988</v>
+        <v>638.0353417728836</v>
       </c>
       <c r="M9" t="n">
-        <v>778.5595777597442</v>
+        <v>1278.580691239988</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.945911741486</v>
+        <v>1638.922426599977</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.381920494209</v>
+        <v>2188.3584353527</v>
       </c>
       <c r="P9" t="n">
-        <v>2404.349688975046</v>
+        <v>2612.326203833537</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>435.5744685779772</v>
+        <v>371.4415720114365</v>
       </c>
       <c r="C10" t="n">
-        <v>435.5744685779772</v>
+        <v>371.4415720114365</v>
       </c>
       <c r="D10" t="n">
-        <v>285.4578291656414</v>
+        <v>221.3249325991008</v>
       </c>
       <c r="E10" t="n">
-        <v>285.4578291656414</v>
+        <v>221.3249325991008</v>
       </c>
       <c r="F10" t="n">
-        <v>285.4578291656414</v>
+        <v>221.3249325991008</v>
       </c>
       <c r="G10" t="n">
-        <v>285.4578291656414</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>131.2031860654065</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>70.59267535384681</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
         <v>52.7180875944842</v>
@@ -4987,25 +4987,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>845.2124843062343</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="T10" t="n">
-        <v>845.2124843062343</v>
+        <v>827.0235723661939</v>
       </c>
       <c r="U10" t="n">
-        <v>845.2124843062343</v>
+        <v>773.8826159852064</v>
       </c>
       <c r="V10" t="n">
-        <v>845.2124843062343</v>
+        <v>773.8826159852064</v>
       </c>
       <c r="W10" t="n">
-        <v>845.2124843062343</v>
+        <v>773.8826159852064</v>
       </c>
       <c r="X10" t="n">
-        <v>617.2229334082169</v>
+        <v>773.8826159852064</v>
       </c>
       <c r="Y10" t="n">
-        <v>617.2229334082169</v>
+        <v>553.0900368416762</v>
       </c>
     </row>
     <row r="11">
@@ -5121,19 +5121,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143764</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.951795518646</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.66716026353</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356235</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2079.600600930063</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1790.525374274261</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274261</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.1082042373</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.1082042373</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.31562509377</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,10 +5540,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069454</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961522</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1920.063992790046</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2056.567265548083</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1767.492038892281</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192707</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111748</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075871</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332397</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014762</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355924</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068001</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694702</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778464</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967194</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354681</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300127</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028055</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273947</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803954</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516181</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438047</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438047</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998415</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237705</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732776</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.42163310766</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060774</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963387</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
         <v>2244.643795685161</v>
@@ -6111,7 +6111,7 @@
         <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297914</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647391</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368322</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244964</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>481.4479471244964</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>481.4479471244964</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>314.2518478393764</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>172.5400166815745</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782964</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038362</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179778</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279811</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853371</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580271</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580271</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235176</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235176</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579374</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373487</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949788</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2216.543602719426</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1996.942137742368</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1707.866911086565</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.866911086565</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1418.449741049605</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>214.9229991561132</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>214.9229991561132</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776664</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>295.5818533952732</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>943.510265746755</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.721406539404</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>854.7852236114967</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>704.6685841991609</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>556.7554906167678</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>409.8655431188574</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6694438337374</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>100.9576126759355</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1205.369871369643</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7372,10 +7372,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192616</v>
@@ -7418,10 +7418,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2271.666355830532</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2052.064890853473</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.98966419767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1508.305175991783</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409245</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,7 +7991,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>199.8342064811453</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>459.9808678792256</v>
       </c>
       <c r="O3" t="n">
-        <v>55.56890732268889</v>
+        <v>202.8112024327518</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>24.38024910894629</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,10 +8228,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>81.03501780052721</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,22 +8295,22 @@
         <v>6.839178026546477</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>301.051458386551</v>
       </c>
       <c r="N6" t="n">
         <v>459.9808678792256</v>
       </c>
       <c r="O6" t="n">
-        <v>111.9857720107654</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>254.8315650219644</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>123.8657672604971</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>80.49106211025395</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243205</v>
+        <v>163.3181754619434</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.92889148616886</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>67.6817777096506</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>145.727442710797</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9261537524327</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>7.085149859743638</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>101.1181252153588</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>11.93987647708187</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>3.329716221298554</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012119</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>19.2862466595401</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>26.9393458976684</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>74.1962961868816</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922497</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.58789941762433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
   </sheetData>
@@ -26314,40 +26314,40 @@
         <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="H2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760025</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760026</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="L2" t="n">
-        <v>322858.6398760025</v>
-      </c>
       <c r="M2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760023</v>
@@ -26375,7 +26375,7 @@
         <v>775624.2722329923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.79234859085409e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.141382136</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663866</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141881.4568282305</v>
+        <v>141881.4568282306</v>
       </c>
       <c r="C4" t="n">
         <v>184436.3405408958</v>
@@ -26430,34 +26430,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695056</v>
-      </c>
       <c r="J4" t="n">
-        <v>6287.480531695037</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695036</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695072</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695106</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695072</v>
       </c>
     </row>
     <row r="5">
@@ -26488,7 +26488,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-719699.744296387</v>
+        <v>-719886.137684926</v>
       </c>
       <c r="C6" t="n">
-        <v>57414.24727943307</v>
+        <v>57414.24727943301</v>
       </c>
       <c r="D6" t="n">
-        <v>55299.25547205884</v>
+        <v>55299.25547205875</v>
       </c>
       <c r="E6" t="n">
-        <v>-560175.642712592</v>
+        <v>-560210.3806380277</v>
       </c>
       <c r="F6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="G6" t="n">
-        <v>215448.6295204001</v>
+        <v>215413.8915949647</v>
       </c>
       <c r="H6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="I6" t="n">
-        <v>215448.6295203954</v>
+        <v>215413.8915949646</v>
       </c>
       <c r="J6" t="n">
-        <v>43031.48813826447</v>
+        <v>42996.75021282441</v>
       </c>
       <c r="K6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="L6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="M6" t="n">
-        <v>87424.5120540138</v>
+        <v>87389.77412857773</v>
       </c>
       <c r="N6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="O6" t="n">
-        <v>215448.6295204001</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="P6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949644</v>
       </c>
     </row>
   </sheetData>
@@ -26756,7 +26756,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.97550034168</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26969,19 +26969,19 @@
         <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.366462912410498e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.911715561524034e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.732193168596</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310526</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>38.97477942916959</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>148.7973512236157</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>123.4282648842211</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.07600977063289</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>218.2812908040069</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>8.744409647471002</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241020306</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>310.0390890621733</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,22 +27822,22 @@
         <v>129.4149600371267</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>74.89926671193069</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>92.70576955875885</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.986106750794</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>70.92461582578878</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>63.26215227497287</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>233.6511078409194</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="45">
@@ -31841,22 +31841,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>165.2255134509767</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>168.0123247135891</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>434.6640573992328</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>500.7380235181017</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348457</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135365</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067241</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663304</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817607</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.84640711626</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175718</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.271511415947</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460069</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236542</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669249</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043741</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292906</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651539</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078765</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659463</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521113</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007754</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420767</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422607</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760222</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071819</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437275</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214723</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485307</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418569</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742463</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937739</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275963</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189914</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612158</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869308</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796269</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355191</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588169</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392062</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106805</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920073</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417328</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515936</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670483</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532785</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099327</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467228</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>531.2627466777524</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>247.3820194983578</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>553.3925020622929</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>506.5895320981981</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>693.4464364470641</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>171.5999003578897</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428316</v>
       </c>
       <c r="K2" t="n">
         <v>81.87226576212782</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>544.6361471870198</v>
       </c>
       <c r="M2" t="n">
         <v>635.9938917992698</v>
@@ -34711,7 +34711,7 @@
         <v>631.5051423789034</v>
       </c>
       <c r="O2" t="n">
-        <v>369.7023451724363</v>
+        <v>550.6683199540363</v>
       </c>
       <c r="P2" t="n">
         <v>110.1290305176052</v>
@@ -34784,16 +34784,16 @@
         <v>508.0634688859707</v>
       </c>
       <c r="M3" t="n">
-        <v>645.3903686673921</v>
+        <v>179.6853049173922</v>
       </c>
       <c r="N3" t="n">
         <v>658.9760949310526</v>
       </c>
       <c r="O3" t="n">
-        <v>215.1664256274483</v>
+        <v>362.4087207375111</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646426</v>
+        <v>427.0254977045797</v>
       </c>
       <c r="Q3" t="n">
         <v>22.14787863307501</v>
@@ -34936,10 +34936,10 @@
         <v>189.5279250463569</v>
       </c>
       <c r="K5" t="n">
-        <v>81.87226576212782</v>
+        <v>406.0176783332926</v>
       </c>
       <c r="L5" t="n">
-        <v>163.2245413550416</v>
+        <v>138.8442922460953</v>
       </c>
       <c r="M5" t="n">
         <v>635.9938917992698</v>
@@ -34948,10 +34948,10 @@
         <v>631.5051423789034</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>169.868138691291</v>
       </c>
       <c r="P5" t="n">
-        <v>110.1290305176052</v>
+        <v>191.1640483181324</v>
       </c>
       <c r="Q5" t="n">
         <v>246.3579661459781</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>67.25502282329688</v>
       </c>
       <c r="L6" t="n">
         <v>508.0634688859707</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173922</v>
+        <v>480.7367633039432</v>
       </c>
       <c r="N6" t="n">
         <v>658.9760949310526</v>
       </c>
       <c r="O6" t="n">
-        <v>271.5832903155248</v>
+        <v>553.459837581489</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>108.5627290646426</v>
       </c>
       <c r="Q6" t="n">
         <v>232.2251663689241</v>
@@ -35173,16 +35173,16 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>338.228690854886</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>320.1629519998733</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>261.801502872481</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310526</v>
+        <v>363.9815508686754</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>31.25110603664647</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.33282074962517</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>300.6896499849026</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>366.7636161037714</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899028</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236318222</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396441</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367802</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462728</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902991</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193561</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243202</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683847</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924754</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.866084390242</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.78523960077537</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.15822477541</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496679017</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396148</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238486</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.484575999283</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.902171207142</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625092</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789293</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295415</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096362</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191331</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010468</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899091</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.261899706047</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998993</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>397.2883392634221</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>120.5443928316911</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>414.8381222824187</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>368.0351523183239</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>562.1047243637308</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>29.46586643587134</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
